--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1732795.375600627</v>
+        <v>-1735351.691427876</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12574568.46673313</v>
+        <v>12574568.46673314</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>103.9069048230606</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>169.1837575975784</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,16 +820,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>27.54265002924262</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>87.27797835925011</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>64.77203581859951</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>44.41113644355437</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>100.0025634447713</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>52.15877458398474</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>56.98500889837925</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>168.5177247035057</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>184.9427530022578</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>50.34839031649373</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>39.52129633183119</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>151.311385129811</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520929</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>201.1906419534422</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>73.97774435452114</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>32.05158559392617</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>146.4649598217091</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>35.99871774582714</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>51.50556704456729</v>
+        <v>86.09789039964274</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>79.70119244397701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>20.43112068613158</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652579</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855438</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855438</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.953318337195</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4352,10 +4352,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.3667606649364</v>
+        <v>2385.838026706343</v>
       </c>
       <c r="C4" t="n">
-        <v>478.4305777370295</v>
+        <v>2216.901843778436</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4305777370295</v>
+        <v>2066.7852043661</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1918.872110783707</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1771.982163285797</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1771.982163285797</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1771.982163285797</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1674.656486104142</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>1719.779118551078</v>
       </c>
       <c r="K4" t="n">
-        <v>282.3220529184994</v>
+        <v>1923.766301499954</v>
       </c>
       <c r="L4" t="n">
-        <v>438.0318968408567</v>
+        <v>2240.32609994845</v>
       </c>
       <c r="M4" t="n">
-        <v>766.5056797247669</v>
+        <v>2407.758581247648</v>
       </c>
       <c r="N4" t="n">
-        <v>1107.914056430632</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1407.243655351045</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.851155784705</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937219</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R4" t="n">
-        <v>1717.461451937219</v>
+        <v>3235.7753643667</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.461451937219</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1495.694836506746</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="U4" t="n">
-        <v>1206.591969632389</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="V4" t="n">
-        <v>1206.591969632389</v>
+        <v>3016.26862157813</v>
       </c>
       <c r="W4" t="n">
-        <v>917.1747995954287</v>
+        <v>3016.26862157813</v>
       </c>
       <c r="X4" t="n">
-        <v>829.0152254951761</v>
+        <v>2788.279070680112</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.0152254951761</v>
+        <v>2567.486491536582</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>1754.744438482648</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1385.781921542236</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1385.781921542236</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>999.9936689439919</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>589.0077641543844</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>173.9353139993809</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2710.947195012955</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2710.947195012955</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2320.807863037144</v>
+        <v>2141.34427854677</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.1638263336251</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C7" t="n">
-        <v>335.2276434057183</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574644</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1874.608917195579</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1682.923033022405</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1682.923033022405</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1682.923033022405</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1682.923033022405</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>1393.505862985445</v>
       </c>
       <c r="X7" t="n">
-        <v>906.604870307395</v>
+        <v>1165.516312087427</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.8122911638649</v>
+        <v>944.7237329438971</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033366</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>581.1420803965862</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>581.1420803965862</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4881,52 +4881,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.020896318616</v>
+        <v>629.780563451991</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4990,22 +4990,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1005.010447216633</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>777.020896318616</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.020896318616</v>
+        <v>629.780563451991</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,28 +5057,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947872</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.222762528163</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528163</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322276</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285315</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387298</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1774.238209850466</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1519.553721644579</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1230.136551607618</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1002.147000709601</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.3544215660705</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>989.3306680894883</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>820.3944851615814</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>670.2778457492457</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>522.3647521668526</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>375.4748046689422</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>208.2787053838221</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1170.979132919728</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>988.1395539230172</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>819.2033709951103</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>669.0867315827745</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>521.1736380003814</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.570148794804</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.580597896787</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1169.788018753257</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>783.5579673960132</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6217844681063</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>464.5051450557705</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
         <v>464.5051450557705</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1703.405732304761</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1413.9885622678</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.999011369783</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>965.2064322262529</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6227,13 +6227,13 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6877,28 +6877,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7075,28 +7075,28 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7318,25 +7318,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>162.6679813986993</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>138.3747553788778</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>250.7761367976224</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>180.0572111198346</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,16 +22708,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>224.5949932945854</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>138.431677029787</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>66.09406519747728</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>84.99383243580195</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>151.731911034516</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>72.11969353038566</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>109.4223302771041</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>200.6320762792607</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>206.821805892614</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>124.9899273367997</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1304243.382769268</v>
+        <v>1304243.382769269</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1304243.382769269</v>
+        <v>1304243.382769268</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1304243.382769269</v>
+        <v>1304243.382769268</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1304243.382769269</v>
+        <v>1304243.382769268</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101551.2845365931</v>
+        <v>101551.284536593</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26341,7 +26341,7 @@
         <v>121071.9899535009</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10751.83355583452</v>
+        <v>10751.83355583445</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
@@ -26430,31 +26430,31 @@
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="H4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184276</v>
-      </c>
       <c r="J4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.6673749362</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.6673749362</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493626</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493622</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1345879.235308228</v>
+        <v>-1346239.318323945</v>
       </c>
       <c r="C6" t="n">
-        <v>-77571.51796494484</v>
+        <v>-77571.51796494481</v>
       </c>
       <c r="D6" t="n">
-        <v>-77571.51796494481</v>
+        <v>-77571.51796494477</v>
       </c>
       <c r="E6" t="n">
-        <v>-319069.809789604</v>
+        <v>-319104.54771504</v>
       </c>
       <c r="F6" t="n">
-        <v>6342.652017751039</v>
+        <v>6307.914092315361</v>
       </c>
       <c r="G6" t="n">
-        <v>6342.652017751068</v>
+        <v>6307.914092315405</v>
       </c>
       <c r="H6" t="n">
-        <v>6342.652017751054</v>
+        <v>6307.914092315419</v>
       </c>
       <c r="I6" t="n">
-        <v>6342.652017751039</v>
+        <v>6307.91409231539</v>
       </c>
       <c r="J6" t="n">
-        <v>-211188.5503795265</v>
+        <v>-211223.2883049622</v>
       </c>
       <c r="K6" t="n">
-        <v>6342.652017751025</v>
+        <v>6307.914092315361</v>
       </c>
       <c r="L6" t="n">
-        <v>-21033.235742841</v>
+        <v>-21033.23574284087</v>
       </c>
       <c r="M6" t="n">
-        <v>-86660.54568472088</v>
+        <v>-86660.54568472097</v>
       </c>
       <c r="N6" t="n">
-        <v>-1605.517749209073</v>
+        <v>-1605.517749209146</v>
       </c>
       <c r="O6" t="n">
-        <v>-1605.517749209132</v>
+        <v>-1605.517749209117</v>
       </c>
       <c r="P6" t="n">
         <v>-1605.517749209132</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>229.835728568721</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>304.8298322738586</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>48.61290957344109</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>36.77337808606259</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>349.8910368433322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>180.7232440139073</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>101.5802453343332</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>168.2362630356011</v>
       </c>
     </row>
     <row r="11">
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,10 +30220,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>604.2458225991924</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -34147,13 +34147,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>331.7916998827376</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>311.4139847019561</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>472.904110515859</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
